--- a/tensorflow/data.xlsx
+++ b/tensorflow/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbsSayem\.vscode\machine_learning\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07498B83-54D5-46FB-8D8A-AAD0911008E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{793C6DF3-BF1D-410A-A06D-0571EF6DAD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
   <si>
     <t>Std_Id</t>
   </si>
@@ -79,6 +79,276 @@
   </si>
   <si>
     <t>Re-Admit</t>
+  </si>
+  <si>
+    <t>LR11</t>
+  </si>
+  <si>
+    <t>LR12</t>
+  </si>
+  <si>
+    <t>LR13</t>
+  </si>
+  <si>
+    <t>LR14</t>
+  </si>
+  <si>
+    <t>LR15</t>
+  </si>
+  <si>
+    <t>LR16</t>
+  </si>
+  <si>
+    <t>LR17</t>
+  </si>
+  <si>
+    <t>LR18</t>
+  </si>
+  <si>
+    <t>LR19</t>
+  </si>
+  <si>
+    <t>LR20</t>
+  </si>
+  <si>
+    <t>LR21</t>
+  </si>
+  <si>
+    <t>LR22</t>
+  </si>
+  <si>
+    <t>LR23</t>
+  </si>
+  <si>
+    <t>LR24</t>
+  </si>
+  <si>
+    <t>LR25</t>
+  </si>
+  <si>
+    <t>LR26</t>
+  </si>
+  <si>
+    <t>LR27</t>
+  </si>
+  <si>
+    <t>LR28</t>
+  </si>
+  <si>
+    <t>LR29</t>
+  </si>
+  <si>
+    <t>LR30</t>
+  </si>
+  <si>
+    <t>LR31</t>
+  </si>
+  <si>
+    <t>LR32</t>
+  </si>
+  <si>
+    <t>LR33</t>
+  </si>
+  <si>
+    <t>LR34</t>
+  </si>
+  <si>
+    <t>LR35</t>
+  </si>
+  <si>
+    <t>LR36</t>
+  </si>
+  <si>
+    <t>LR37</t>
+  </si>
+  <si>
+    <t>LR38</t>
+  </si>
+  <si>
+    <t>LR39</t>
+  </si>
+  <si>
+    <t>LR40</t>
+  </si>
+  <si>
+    <t>LR41</t>
+  </si>
+  <si>
+    <t>LR42</t>
+  </si>
+  <si>
+    <t>LR43</t>
+  </si>
+  <si>
+    <t>LR44</t>
+  </si>
+  <si>
+    <t>LR45</t>
+  </si>
+  <si>
+    <t>LR46</t>
+  </si>
+  <si>
+    <t>LR47</t>
+  </si>
+  <si>
+    <t>LR48</t>
+  </si>
+  <si>
+    <t>LR49</t>
+  </si>
+  <si>
+    <t>LR50</t>
+  </si>
+  <si>
+    <t>LR51</t>
+  </si>
+  <si>
+    <t>LR52</t>
+  </si>
+  <si>
+    <t>LR53</t>
+  </si>
+  <si>
+    <t>LR54</t>
+  </si>
+  <si>
+    <t>LR55</t>
+  </si>
+  <si>
+    <t>LR56</t>
+  </si>
+  <si>
+    <t>LR57</t>
+  </si>
+  <si>
+    <t>LR58</t>
+  </si>
+  <si>
+    <t>LR59</t>
+  </si>
+  <si>
+    <t>LR60</t>
+  </si>
+  <si>
+    <t>LR61</t>
+  </si>
+  <si>
+    <t>LR62</t>
+  </si>
+  <si>
+    <t>LR63</t>
+  </si>
+  <si>
+    <t>LR64</t>
+  </si>
+  <si>
+    <t>LR65</t>
+  </si>
+  <si>
+    <t>LR66</t>
+  </si>
+  <si>
+    <t>LR67</t>
+  </si>
+  <si>
+    <t>LR68</t>
+  </si>
+  <si>
+    <t>LR69</t>
+  </si>
+  <si>
+    <t>LR70</t>
+  </si>
+  <si>
+    <t>LR71</t>
+  </si>
+  <si>
+    <t>LR72</t>
+  </si>
+  <si>
+    <t>LR73</t>
+  </si>
+  <si>
+    <t>LR74</t>
+  </si>
+  <si>
+    <t>LR75</t>
+  </si>
+  <si>
+    <t>LR76</t>
+  </si>
+  <si>
+    <t>LR77</t>
+  </si>
+  <si>
+    <t>LR78</t>
+  </si>
+  <si>
+    <t>LR79</t>
+  </si>
+  <si>
+    <t>LR80</t>
+  </si>
+  <si>
+    <t>LR81</t>
+  </si>
+  <si>
+    <t>LR82</t>
+  </si>
+  <si>
+    <t>LR83</t>
+  </si>
+  <si>
+    <t>LR84</t>
+  </si>
+  <si>
+    <t>LR85</t>
+  </si>
+  <si>
+    <t>LR86</t>
+  </si>
+  <si>
+    <t>LR87</t>
+  </si>
+  <si>
+    <t>LR88</t>
+  </si>
+  <si>
+    <t>LR89</t>
+  </si>
+  <si>
+    <t>LR90</t>
+  </si>
+  <si>
+    <t>LR91</t>
+  </si>
+  <si>
+    <t>LR92</t>
+  </si>
+  <si>
+    <t>LR93</t>
+  </si>
+  <si>
+    <t>LR94</t>
+  </si>
+  <si>
+    <t>LR95</t>
+  </si>
+  <si>
+    <t>LR96</t>
+  </si>
+  <si>
+    <t>LR97</t>
+  </si>
+  <si>
+    <t>LR98</t>
+  </si>
+  <si>
+    <t>LR99</t>
+  </si>
+  <si>
+    <t>LR100</t>
   </si>
 </sst>
 </file>
@@ -411,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +916,1770 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>42</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>19</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>19</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>27</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>24</v>
+      </c>
+      <c r="E66">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>27</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>27</v>
+      </c>
+      <c r="E70">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>26</v>
+      </c>
+      <c r="E74">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>24</v>
+      </c>
+      <c r="E76">
+        <v>39</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>27</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="E80">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>26</v>
+      </c>
+      <c r="E84">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>24</v>
+      </c>
+      <c r="E86">
+        <v>39</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>19</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>32</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>27</v>
+      </c>
+      <c r="E90">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>22</v>
+      </c>
+      <c r="E91">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>26</v>
+      </c>
+      <c r="E94">
+        <v>27</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95">
+        <v>27</v>
+      </c>
+      <c r="E95">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>24</v>
+      </c>
+      <c r="E96">
+        <v>37</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>19</v>
+      </c>
+      <c r="E99">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>27</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>22</v>
+      </c>
+      <c r="E101">
+        <v>39</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tensorflow/data.xlsx
+++ b/tensorflow/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbsSayem\.vscode\machine_learning\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{793C6DF3-BF1D-410A-A06D-0571EF6DAD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D76BF8-9588-4EA1-97F3-A4FAE645F5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1050,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -1063,6 +1063,9 @@
       <c r="B19">
         <v>9</v>
       </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
       <c r="D19">
         <v>19</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="E22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1147,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1167,7 +1170,7 @@
         <v>19</v>
       </c>
       <c r="E24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1177,6 +1180,9 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
       <c r="C25">
         <v>8</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>27</v>
       </c>
       <c r="E31">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -1324,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -1344,7 +1350,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -1417,6 +1423,9 @@
       <c r="B37">
         <v>9</v>
       </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
       <c r="D37">
         <v>19</v>
       </c>
@@ -1551,6 +1560,9 @@
       <c r="A44" t="s">
         <v>50</v>
       </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
       <c r="C44">
         <v>8</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="E46">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -1618,7 +1630,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -1638,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -1691,6 +1703,9 @@
       <c r="B51">
         <v>7</v>
       </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
       <c r="D51">
         <v>20</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>19</v>
       </c>
       <c r="E54">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -1774,6 +1789,9 @@
       <c r="D55">
         <v>26</v>
       </c>
+      <c r="E55">
+        <v>30</v>
+      </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
@@ -1842,6 +1860,9 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
       <c r="C59">
         <v>5</v>
       </c>
@@ -1885,6 +1906,9 @@
       <c r="C61">
         <v>9</v>
       </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
       <c r="E61">
         <v>30</v>
       </c>
@@ -2026,7 +2050,7 @@
         <v>20</v>
       </c>
       <c r="E68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
@@ -2046,7 +2070,7 @@
         <v>19</v>
       </c>
       <c r="E69">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -2322,6 +2346,9 @@
       <c r="C83">
         <v>10</v>
       </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
       <c r="E83">
         <v>40</v>
       </c>
@@ -2522,6 +2549,9 @@
       <c r="D93">
         <v>19</v>
       </c>
+      <c r="E93">
+        <v>40</v>
+      </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2570,7 @@
         <v>26</v>
       </c>
       <c r="E94">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -2550,11 +2580,17 @@
       <c r="A95" t="s">
         <v>101</v>
       </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
       <c r="D95">
         <v>27</v>
       </c>
       <c r="E95">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>

--- a/tensorflow/data.xlsx
+++ b/tensorflow/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbsSayem\.vscode\machine_learning\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D76BF8-9588-4EA1-97F3-A4FAE645F5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEAD611-22EF-4184-8983-471468867616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Regular</t>
   </si>
   <si>
-    <t>Re-Admit</t>
-  </si>
-  <si>
     <t>LR11</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>LR100</t>
+  </si>
+  <si>
+    <t>Re_Admit</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1013,12 +1013,12 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -1293,12 +1293,12 @@
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -1373,12 +1373,12 @@
         <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -1673,12 +1673,12 @@
         <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>7</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>9</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>7</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -2533,12 +2533,12 @@
         <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>7</v>

--- a/tensorflow/data.xlsx
+++ b/tensorflow/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbsSayem\.vscode\machine_learning\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEAD611-22EF-4184-8983-471468867616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1B01B-C6B8-44B3-8FAC-4C0E7EA403A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>

--- a/tensorflow/data.xlsx
+++ b/tensorflow/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbsSayem\.vscode\machine_learning\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D1B01B-C6B8-44B3-8FAC-4C0E7EA403A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB44CE-7C0B-49A1-B1DC-FE125CC5B7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>38</v>
@@ -867,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>33</v>
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -987,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>42</v>
@@ -1107,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>39</v>
@@ -1147,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>33</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>42</v>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>40</v>
@@ -1347,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>30</v>
@@ -1407,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>37</v>
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>40</v>
@@ -1727,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>39</v>
@@ -1847,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>40</v>
@@ -2067,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E69">
         <v>30</v>
@@ -2327,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E82">
         <v>40</v>
@@ -2567,7 +2567,7 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>33</v>
@@ -2607,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E96">
         <v>37</v>
@@ -2687,7 +2687,7 @@
         <v>10</v>
       </c>
       <c r="D100">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>30</v>

--- a/tensorflow/data.xlsx
+++ b/tensorflow/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbsSayem\.vscode\machine_learning\tensorflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB44CE-7C0B-49A1-B1DC-FE125CC5B7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4AEE1B-6F2A-41BD-8E5A-98122A05795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>33</v>
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E77">
         <v>40</v>
@@ -2267,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E79">
         <v>27</v>
@@ -2447,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>32</v>
@@ -2487,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="D90">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>42</v>
@@ -2647,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>40</v>
